--- a/dtpu_configurations/only_integer32/30mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_5x5/power.xlsx
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.012132697738707066</v>
+        <v>0.015564869157969952</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005050357896834612</v>
+        <v>0.0056834048591554165</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004076539538800716</v>
+        <v>0.0042962804436683655</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0037934896536171436</v>
+        <v>0.0033684303052723408</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.1068827006965876E-5</v>
+        <v>6.463405443355441E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0011074839858338237</v>
+        <v>0.0010609653545543551</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12622031569480896</v>
+        <v>0.12727704644203186</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4105759859085083</v>
+        <v>1.4160624742507935</v>
       </c>
     </row>
   </sheetData>
